--- a/reservaciones.xlsx
+++ b/reservaciones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,21 +445,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26343</v>
+        <v>32713</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RESERVITA</t>
+          <t>terce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-22 00:00:00</t>
+          <t>2025-11-01 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>46560</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>español</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-10-28 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47404</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>matematicas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-10 00:00:00</t>
         </is>
       </c>
     </row>

--- a/reservaciones.xlsx
+++ b/reservaciones.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Reservaciones" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="REGISTRO AFI" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Folio</t>
+          <t>Matricula</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Horario</t>
+          <t>nombre_afi</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -443,66 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>32713</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>terce</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-11-01 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>46560</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>español</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-10-28 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>47404</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>matematicas</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-11-10 00:00:00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
